--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/99/correct_predictions_99.xlsx
@@ -476,12 +476,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled</t>
+          <t>Strong wireless interference</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -506,12 +506,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Strong wireless interference</t>
+          <t>Landing gear lowered</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -536,22 +536,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Please fly with caution</t>
+          <t>Obstacle Avoidance Disabled</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -566,42 +566,42 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled</t>
+          <t>Please fly with caution</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Landing gear lowered</t>
+          <t>Wind resistance affected</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Wind resistance affected</t>
+          <t>Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -656,12 +656,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Return to home and land promptly</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>7-12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -686,42 +686,42 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Return to home and land promptly</t>
+          <t>Propeller rotating too fast</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7-12</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast</t>
+          <t>GPS signal low</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -746,12 +746,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GPS signal low</t>
+          <t>Aircraft unable to auto hover and takeoff restricted</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -776,22 +776,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Aircraft unable to auto hover and takeoff restricted</t>
+          <t>Move to environment with adequate light</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Move to environment with adequate light</t>
+          <t>Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>17-21</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -827,21 +827,21 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Unlocking takeoff restrictions not recommended</t>
+          <t>Downward ambient light too low</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>17-21</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -866,22 +866,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Downward ambient light too low</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>16-19</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -896,12 +896,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>16-19</t>
+          <t>24-26</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -926,12 +926,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>24-26</t>
+          <t>20-23</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -956,12 +956,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>20-23</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -986,12 +986,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1016,52 +1016,52 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Obstacle avoidance unavailable</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1076,12 +1076,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>9-12</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1106,22 +1106,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>9-12</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1136,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1157,31 +1157,31 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Motor speed error</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1196,52 +1196,52 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Motor speed error</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>Compass abnormal</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1256,22 +1256,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Compass abnormal</t>
+          <t>The ground or walls may contain metal</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>15-21</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1286,12 +1286,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>The ground or walls may contain metal</t>
+          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>15-21</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/99/correct_predictions_99.xlsx
@@ -476,12 +476,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Strong wireless interference</t>
+          <t>Obstacle Avoidance Disabled</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -506,12 +506,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Landing gear lowered</t>
+          <t>Strong wireless interference</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -536,22 +536,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled</t>
+          <t>Please fly with caution</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -566,42 +566,42 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Please fly with caution</t>
+          <t>Obstacle Avoidance Disabled</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Wind resistance affected</t>
+          <t>Landing gear lowered</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Wind resistance affected</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -656,12 +656,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Return to home and land promptly</t>
+          <t>Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7-12</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -686,42 +686,42 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast</t>
+          <t>Return to home and land promptly</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>7-12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GPS signal low</t>
+          <t>Propeller rotating too fast</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -746,12 +746,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Aircraft unable to auto hover and takeoff restricted</t>
+          <t>GPS signal low</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -776,22 +776,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Move to environment with adequate light</t>
+          <t>Aircraft unable to auto hover and takeoff restricted</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Unlocking takeoff restrictions not recommended</t>
+          <t>Move to environment with adequate light</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>17-21</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -827,21 +827,21 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Downward ambient light too low</t>
+          <t>Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>17-21</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -866,22 +866,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Downward ambient light too low</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>16-19</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -896,12 +896,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>24-26</t>
+          <t>16-19</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -926,12 +926,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>20-23</t>
+          <t>24-26</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -956,12 +956,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>20-23</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -986,12 +986,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Obstacle avoidance unavailable</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1016,52 +1016,52 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1076,12 +1076,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>9-12</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1106,22 +1106,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>9-12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1136,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1157,31 +1157,31 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Motor speed error</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1196,52 +1196,52 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>Motor speed error</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Compass abnormal</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1256,22 +1256,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>The ground or walls may contain metal</t>
+          <t>Compass abnormal</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>15-21</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1286,12 +1286,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
+          <t>The ground or walls may contain metal</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>15-21</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
